--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="N2">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="O2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q2">
-        <v>108.5150665516671</v>
+        <v>157.7210733518567</v>
       </c>
       <c r="R2">
-        <v>108.5150665516671</v>
+        <v>1419.48966016671</v>
       </c>
       <c r="S2">
-        <v>0.005516423032190219</v>
+        <v>0.007118045060342561</v>
       </c>
       <c r="T2">
-        <v>0.005516423032190219</v>
+        <v>0.007118045060342562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N3">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q3">
-        <v>4439.070891525493</v>
+        <v>4593.072187186266</v>
       </c>
       <c r="R3">
-        <v>4439.070891525493</v>
+        <v>41337.64968467639</v>
       </c>
       <c r="S3">
-        <v>0.2256626078359088</v>
+        <v>0.2072880566876585</v>
       </c>
       <c r="T3">
-        <v>0.2256626078359088</v>
+        <v>0.2072880566876585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="N4">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q4">
-        <v>983.0977757421894</v>
+        <v>9.493108064549999</v>
       </c>
       <c r="R4">
-        <v>983.0977757421894</v>
+        <v>85.43797258094997</v>
       </c>
       <c r="S4">
-        <v>0.04997631559684901</v>
+        <v>0.0004284295657525894</v>
       </c>
       <c r="T4">
-        <v>0.04997631559684901</v>
+        <v>0.0004284295657525894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2534690179382</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>19.2534690179382</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.1082444117297882</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.1082444117297882</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.16990234270946</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N5">
-        <v>2.16990234270946</v>
+        <v>63.508942</v>
       </c>
       <c r="O5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q5">
-        <v>41.77814752730811</v>
+        <v>1092.175483403962</v>
       </c>
       <c r="R5">
-        <v>41.77814752730811</v>
+        <v>9829.579350635659</v>
       </c>
       <c r="S5">
-        <v>0.002123815084720534</v>
+        <v>0.04929052370400513</v>
       </c>
       <c r="T5">
-        <v>0.002123815084720534</v>
+        <v>0.04929052370400513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.76509624945309</v>
+        <v>3.057109</v>
       </c>
       <c r="N6">
-        <v>88.76509624945309</v>
+        <v>9.171327</v>
       </c>
       <c r="O6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q6">
-        <v>1709.036030513148</v>
+        <v>59.06687174571335</v>
       </c>
       <c r="R6">
-        <v>1709.036030513148</v>
+        <v>531.6018457114201</v>
       </c>
       <c r="S6">
-        <v>0.08687978564780077</v>
+        <v>0.002665722758058527</v>
       </c>
       <c r="T6">
-        <v>0.08687978564780077</v>
+        <v>0.002665722758058527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6583408597897</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N7">
-        <v>19.6583408597897</v>
+        <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q7">
-        <v>378.4912566880296</v>
+        <v>1720.115137652534</v>
       </c>
       <c r="R7">
-        <v>378.4912566880296</v>
+        <v>15481.0362388728</v>
       </c>
       <c r="S7">
-        <v>0.01924081099726691</v>
+        <v>0.07762981064346118</v>
       </c>
       <c r="T7">
-        <v>0.01924081099726691</v>
+        <v>0.07762981064346118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.9039889621471</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>97.9039889621471</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.16990234270946</v>
+        <v>0.184005</v>
       </c>
       <c r="N8">
-        <v>2.16990234270946</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q8">
-        <v>212.4420950095641</v>
+        <v>3.555188819100001</v>
       </c>
       <c r="R8">
-        <v>212.4420950095641</v>
+        <v>31.9966993719</v>
       </c>
       <c r="S8">
-        <v>0.0107996106269678</v>
+        <v>0.0001604477681680827</v>
       </c>
       <c r="T8">
-        <v>0.0107996106269678</v>
+        <v>0.0001604477681680827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.9039889621471</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>97.9039889621471</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.76509624945309</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N9">
-        <v>88.76509624945309</v>
+        <v>63.508942</v>
       </c>
       <c r="O9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q9">
-        <v>8690.45700343038</v>
+        <v>409.0220021399246</v>
       </c>
       <c r="R9">
-        <v>8690.45700343038</v>
+        <v>3681.198019259321</v>
       </c>
       <c r="S9">
-        <v>0.4417841567756532</v>
+        <v>0.01845940418759674</v>
       </c>
       <c r="T9">
-        <v>0.4417841567756532</v>
+        <v>0.01845940418759674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.6583408597897</v>
+        <v>3.057109</v>
       </c>
       <c r="N10">
-        <v>19.6583408597897</v>
+        <v>9.171327</v>
       </c>
       <c r="O10">
-        <v>0.177753388741194</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P10">
-        <v>0.177753388741194</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q10">
-        <v>1924.629986550976</v>
+        <v>343.5348812369393</v>
       </c>
       <c r="R10">
-        <v>1924.629986550976</v>
+        <v>3091.813931132453</v>
       </c>
       <c r="S10">
-        <v>0.09783962286194302</v>
+        <v>0.01550393179856697</v>
       </c>
       <c r="T10">
-        <v>0.09783962286194302</v>
+        <v>0.01550393179856698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7036763212145</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H11">
-        <v>10.7036763212145</v>
+        <v>337.117402</v>
       </c>
       <c r="I11">
-        <v>0.06017685154069964</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J11">
-        <v>0.06017685154069964</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.16990234270946</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N11">
-        <v>2.16990234270946</v>
+        <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.01962055177520146</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P11">
-        <v>0.01962055177520146</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q11">
-        <v>23.22593232500712</v>
+        <v>10004.24657786637</v>
       </c>
       <c r="R11">
-        <v>23.22593232500712</v>
+        <v>90038.21920079735</v>
       </c>
       <c r="S11">
-        <v>0.001180703031322909</v>
+        <v>0.4514975483153623</v>
       </c>
       <c r="T11">
-        <v>0.001180703031322909</v>
+        <v>0.4514975483153624</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7036763212145</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H12">
-        <v>10.7036763212145</v>
+        <v>337.117402</v>
       </c>
       <c r="I12">
-        <v>0.06017685154069964</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J12">
-        <v>0.06017685154069964</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>88.76509624945309</v>
+        <v>0.184005</v>
       </c>
       <c r="N12">
-        <v>88.76509624945309</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O12">
-        <v>0.8026260594836044</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P12">
-        <v>0.8026260594836044</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q12">
-        <v>950.1128588755971</v>
+        <v>20.67709585166999</v>
       </c>
       <c r="R12">
-        <v>950.1128588755971</v>
+        <v>186.0938626650299</v>
       </c>
       <c r="S12">
-        <v>0.04829950922424162</v>
+        <v>0.0009331695306236433</v>
       </c>
       <c r="T12">
-        <v>0.04829950922424162</v>
+        <v>0.0009331695306236434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7036763212145</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H13">
-        <v>10.7036763212145</v>
+        <v>337.117402</v>
       </c>
       <c r="I13">
-        <v>0.06017685154069964</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J13">
-        <v>0.06017685154069964</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.6583408597897</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N13">
-        <v>19.6583408597897</v>
+        <v>63.508942</v>
       </c>
       <c r="O13">
-        <v>0.177753388741194</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P13">
-        <v>0.177753388741194</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q13">
-        <v>210.4165175752945</v>
+        <v>2378.885503423187</v>
       </c>
       <c r="R13">
-        <v>210.4165175752945</v>
+        <v>21409.96953080868</v>
       </c>
       <c r="S13">
-        <v>0.0106966392851351</v>
+        <v>0.107360505777097</v>
       </c>
       <c r="T13">
-        <v>0.0106966392851351</v>
+        <v>0.107360505777097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.044915</v>
+      </c>
+      <c r="H14">
+        <v>36.134745</v>
+      </c>
+      <c r="I14">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J14">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.057109</v>
+      </c>
+      <c r="N14">
+        <v>9.171327</v>
+      </c>
+      <c r="O14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="P14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="Q14">
+        <v>36.822618050735</v>
+      </c>
+      <c r="R14">
+        <v>331.403562456615</v>
+      </c>
+      <c r="S14">
+        <v>0.00166182646969559</v>
+      </c>
+      <c r="T14">
+        <v>0.00166182646969559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.044915</v>
+      </c>
+      <c r="H15">
+        <v>36.134745</v>
+      </c>
+      <c r="I15">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J15">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>89.02755999999999</v>
+      </c>
+      <c r="N15">
+        <v>267.08268</v>
+      </c>
+      <c r="O15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="P15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="Q15">
+        <v>1072.3293928574</v>
+      </c>
+      <c r="R15">
+        <v>9650.964535716599</v>
+      </c>
+      <c r="S15">
+        <v>0.0483948579329073</v>
+      </c>
+      <c r="T15">
+        <v>0.04839485793290731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.044915</v>
+      </c>
+      <c r="H16">
+        <v>36.134745</v>
+      </c>
+      <c r="I16">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J16">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.184005</v>
+      </c>
+      <c r="N16">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="P16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="Q16">
+        <v>2.216324584575</v>
+      </c>
+      <c r="R16">
+        <v>19.946921261175</v>
+      </c>
+      <c r="S16">
+        <v>0.0001000240356350843</v>
+      </c>
+      <c r="T16">
+        <v>0.0001000240356350843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.044915</v>
+      </c>
+      <c r="H17">
+        <v>36.134745</v>
+      </c>
+      <c r="I17">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J17">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="N17">
+        <v>63.508942</v>
+      </c>
+      <c r="O17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="P17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="Q17">
+        <v>254.9866027099767</v>
+      </c>
+      <c r="R17">
+        <v>2294.87942438979</v>
+      </c>
+      <c r="S17">
+        <v>0.01150769576506889</v>
+      </c>
+      <c r="T17">
+        <v>0.01150769576506889</v>
       </c>
     </row>
   </sheetData>
